--- a/SSO/temp_results_2.xlsx
+++ b/SSO/temp_results_2.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19020" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="20sat_4gs_33obs" sheetId="1" r:id="rId1"/>
     <sheet name="20sat_2gs_33obs" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -116,8 +117,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -128,13 +131,15 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -792,11 +797,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="300"/>
-        <c:axId val="2061287096"/>
-        <c:axId val="2061288888"/>
+        <c:axId val="2138636808"/>
+        <c:axId val="2138686440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2061287096"/>
+        <c:axId val="2138636808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -839,7 +844,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2061288888"/>
+        <c:crossAx val="2138686440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -847,7 +852,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2061288888"/>
+        <c:axId val="2138686440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -893,7 +898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2061287096"/>
+        <c:crossAx val="2138636808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1200,11 +1205,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="300"/>
-        <c:axId val="-2074996104"/>
-        <c:axId val="-2064342760"/>
+        <c:axId val="2138699432"/>
+        <c:axId val="2138705400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2074996104"/>
+        <c:axId val="2138699432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,7 +1236,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
@@ -1247,7 +1251,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2064342760"/>
+        <c:crossAx val="2138705400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1255,7 +1259,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2064342760"/>
+        <c:axId val="2138705400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,7 +1288,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1301,14 +1304,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2074996104"/>
+        <c:crossAx val="2138699432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1884,11 +1886,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="300"/>
-        <c:axId val="2081163880"/>
-        <c:axId val="-2046738056"/>
+        <c:axId val="2138827128"/>
+        <c:axId val="2138833096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2081163880"/>
+        <c:axId val="2138827128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1931,7 +1933,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2046738056"/>
+        <c:crossAx val="2138833096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1939,7 +1941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2046738056"/>
+        <c:axId val="2138833096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1985,7 +1987,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2081163880"/>
+        <c:crossAx val="2138827128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2268,11 +2270,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="300"/>
-        <c:axId val="-2077225992"/>
-        <c:axId val="-2073532984"/>
+        <c:axId val="2138935816"/>
+        <c:axId val="2138888488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2077225992"/>
+        <c:axId val="2138935816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2315,7 +2317,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2073532984"/>
+        <c:crossAx val="2138888488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2323,7 +2325,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2073532984"/>
+        <c:axId val="2138888488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2369,7 +2371,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077225992"/>
+        <c:crossAx val="2138935816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2861,8 +2863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4162,8 +4164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5353,4 +5355,420 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>4.7871717807699099</v>
+      </c>
+      <c r="B1">
+        <v>4.6914812437559004</v>
+      </c>
+      <c r="C1">
+        <f>B1/A1</f>
+        <v>0.98001105007378286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>4.0821835978591103</v>
+      </c>
+      <c r="B2">
+        <v>4.7092016126406202</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C33" si="0">B2/A2</f>
+        <v>1.1535986806449243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>4.0391929349226503</v>
+      </c>
+      <c r="B3">
+        <v>4.7602391081241899</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>1.1785124367215569</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>4.72437166785868</v>
+      </c>
+      <c r="B4">
+        <v>7.8617346957374803</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1.6640804848660031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3.5561168952768099</v>
+      </c>
+      <c r="B5">
+        <v>5.08797611305065</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1.4307673968222014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>6.6529883368274696</v>
+      </c>
+      <c r="B6">
+        <v>8.5252963658630208</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1.281423615110135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>3.7882590229445001</v>
+      </c>
+      <c r="B7">
+        <v>4.9737948345467</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1.3129500396941491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>3.4614796450281902</v>
+      </c>
+      <c r="B8">
+        <v>4.8263642047200204</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.394306683747873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>4.5468637062261301</v>
+      </c>
+      <c r="B9">
+        <v>4.72404048955931</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1.0389668120226625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>4.0288281840662297</v>
+      </c>
+      <c r="B10">
+        <v>4.7747768589055504</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1.1851527642180182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>3.4656473720902001</v>
+      </c>
+      <c r="B11">
+        <v>4.8228750307010202</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1.3916231263287036</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>3.8541742747555601</v>
+      </c>
+      <c r="B12">
+        <v>4.3830514793665403</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1.1372219227540048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>4.99894752606866</v>
+      </c>
+      <c r="B13">
+        <v>4.6540317619674498</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.93100232352859613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>3.6096980313339699</v>
+      </c>
+      <c r="B14">
+        <v>5.1384055625482201</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1.4235001149526387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>4.2994711625090201</v>
+      </c>
+      <c r="B15">
+        <v>4.6483160034083904</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1.0811366858187732</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>3.8249924232651602</v>
+      </c>
+      <c r="B16">
+        <v>5.3202014547537004</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1.3909050962804712</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>3.7493461835205699</v>
+      </c>
+      <c r="B17">
+        <v>4.8851953214097197</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1.3029459223801541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>3.4357225521308998</v>
+      </c>
+      <c r="B18">
+        <v>0.58214272861115901</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0.16943822435548619</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>4.1792449654239201</v>
+      </c>
+      <c r="B19">
+        <v>4.4842735518149999</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1.0729865296039518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>3.5479580693883799</v>
+      </c>
+      <c r="B20">
+        <v>4.8822087033166</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1.3760615564879624</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>4.4103569548547998</v>
+      </c>
+      <c r="B21">
+        <v>4.6379017675929397</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>1.0515932871346536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>3.61669771547388</v>
+      </c>
+      <c r="B22">
+        <v>5.1414523764807498</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1.4215875312120432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>3.9913264932821302</v>
+      </c>
+      <c r="B23">
+        <v>0.31388535194606199</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>7.8641863168640247E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>3.5003580312759399</v>
+      </c>
+      <c r="B24">
+        <v>4.8253021428779999</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1.3785167402201699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>3.7732651492595699</v>
+      </c>
+      <c r="B25">
+        <v>5.9405009126867796</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>1.5743661464799228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>4.6963538457164304</v>
+      </c>
+      <c r="B26">
+        <v>6.1557564220173404</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>1.3107522610614273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>3.5830403840153902</v>
+      </c>
+      <c r="B27">
+        <v>5.4544931091690803</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>1.5223085772358551</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>3.9670847660606601</v>
+      </c>
+      <c r="B28">
+        <v>4.6101620431932</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>1.1621032357650174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>3.6769180673099102</v>
+      </c>
+      <c r="B29">
+        <v>4.9228295320153004</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>1.3388466759110893</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>3.5884946490025298</v>
+      </c>
+      <c r="B30">
+        <v>5.46716509976173</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>1.5235260560528916</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>3.6194442636126301</v>
+      </c>
+      <c r="B31">
+        <v>5.1167194839080201</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>1.4136754460755072</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>4.3280597655462802</v>
+      </c>
+      <c r="B32">
+        <v>4.6796499141851298</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>1.0812350493488327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>2.9325217029918198</v>
+      </c>
+      <c r="B33">
+        <v>5.1237712188867297</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>1.7472236313406824</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>